--- a/Pendulum/Data/PendulumDaytwo.xlsx
+++ b/Pendulum/Data/PendulumDaytwo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\Books\UofU\UofU_Fall_2013\Undergrad Lab Physics 3719\Lab2013\Experiments\ThePendulum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\3719\Pendulum\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>T s</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Stop Watch</t>
   </si>
   <si>
-    <t>Dimenstions of the Bob</t>
-  </si>
-  <si>
     <t>Mass g '+- 0.1</t>
   </si>
   <si>
@@ -162,6 +159,24 @@
   </si>
   <si>
     <t>Lengths</t>
+  </si>
+  <si>
+    <t>T^2</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>(T _20/20)^2</t>
+  </si>
+  <si>
+    <t>Sigma_avgT</t>
+  </si>
+  <si>
+    <t>Sigma_avgT_20</t>
+  </si>
+  <si>
+    <t>dimensions of the Bob</t>
   </si>
 </sst>
 </file>
@@ -177,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -417,6 +438,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -701,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +769,7 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="22"/>
       <c r="AB2" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC2" s="19"/>
     </row>
@@ -776,34 +802,34 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>11</v>
@@ -812,19 +838,19 @@
         <v>12</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
@@ -897,13 +923,13 @@
         <v>4.5795196254629161E-2</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4">
         <v>49.85</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" s="11">
         <v>20.21</v>
@@ -999,7 +1025,7 @@
         <v>0.13</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC5" s="10">
         <f>W12</f>
@@ -1087,7 +1113,7 @@
         <v>0.15</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC6" s="10">
         <f>Z11</f>
@@ -1330,7 +1356,7 @@
         <v>4.5091019061449494E-2</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" s="12">
         <f>AVERAGE(W4:W8)</f>
@@ -1418,7 +1444,7 @@
         <v>4.532107677449862E-2</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W10" s="12">
         <f>1-(50-W9)/50</f>
@@ -1503,7 +1529,7 @@
         <v>4.6626172907499049E-2</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" s="12">
         <f>STDEV(W4:W8)</f>
@@ -1591,7 +1617,7 @@
         <v>4.4685568140060604E-2</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W12" s="12">
         <f>W11/SQRT(5)</f>
@@ -1688,31 +1714,41 @@
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="G15" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="25"/>
+      <c r="M15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>6</v>
@@ -1721,16 +1757,43 @@
         <v>7</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <f>L4</f>
         <v>6.1891582339363644</v>
@@ -1748,11 +1811,11 @@
         <v>2.0002812302273897E-3</v>
       </c>
       <c r="G17" s="6">
-        <f>C4</f>
+        <f t="shared" ref="G17:G26" si="17">C4</f>
         <v>149.69999999999999</v>
       </c>
       <c r="H17" s="5">
-        <f>D4</f>
+        <f t="shared" ref="H17:H26" si="18">D4</f>
         <v>149.80000000000001</v>
       </c>
       <c r="I17" s="6">
@@ -1767,385 +1830,735 @@
         <f>$D$38</f>
         <v>2.0002812302273897E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="4">
+        <v>1.4983095500000001</v>
+      </c>
+      <c r="N17" s="28">
+        <f>(E4/20)^2</f>
+        <v>6.1926322500000008</v>
+      </c>
+      <c r="O17" s="28">
+        <f>(F4/20)^2</f>
+        <v>6.2050810000000007</v>
+      </c>
+      <c r="P17" s="28">
+        <f t="shared" ref="P17:R17" si="19">(G4/20)^2</f>
+        <v>6.2025902500000001</v>
+      </c>
+      <c r="Q17" s="28">
+        <f t="shared" si="19"/>
+        <v>6.1801959999999987</v>
+      </c>
+      <c r="R17" s="28">
+        <f t="shared" si="19"/>
+        <v>6.175225000000002</v>
+      </c>
+      <c r="S17" s="4">
+        <f>AVERAGE(N17:R17)</f>
+        <v>6.1911449000000003</v>
+      </c>
+      <c r="T17" s="4">
+        <f>M4/SQRT(5)</f>
+        <v>2.3790754506740654E-2</v>
+      </c>
+      <c r="U17" s="4">
+        <f>2*T17/20</f>
+        <v>2.3790754506740654E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <f t="shared" ref="B18:B26" si="17">L5</f>
+        <f t="shared" ref="B18:B26" si="20">L5</f>
         <v>5.7797702795294787</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" ref="C18:C26" si="18">T5</f>
+        <f t="shared" ref="C18:C26" si="21">T5</f>
         <v>4.6151923036857341E-2</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" ref="D18:D26" si="19">I18</f>
+        <f t="shared" ref="D18:D26" si="22">I18</f>
         <v>1.3913095499999999</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" ref="E18:E26" si="20">K18</f>
+        <f t="shared" ref="E18:E26" si="23">K18</f>
         <v>2.0002812302273897E-3</v>
       </c>
       <c r="G18" s="6">
-        <f>C5</f>
+        <f t="shared" si="17"/>
         <v>139.1</v>
       </c>
       <c r="H18" s="5">
-        <f>D5</f>
+        <f t="shared" si="18"/>
         <v>139.5</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="I18:J26" si="21">(G18+$C$33+$C$36)/100</f>
+        <f t="shared" ref="I18:J26" si="24">(G18+$C$33+$C$36)/100</f>
         <v>1.3913095499999999</v>
       </c>
       <c r="J18" s="6">
+        <f t="shared" si="24"/>
+        <v>1.3953095500000001</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:K26" si="25">$D$38</f>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1.3953095500000001</v>
+      </c>
+      <c r="N18" s="28">
+        <f t="shared" ref="N18:O18" si="26">(E5/20)^2</f>
+        <v>5.7624002500000007</v>
+      </c>
+      <c r="O18" s="28">
+        <f t="shared" si="26"/>
+        <v>5.7744090000000003</v>
+      </c>
+      <c r="P18" s="28">
+        <f t="shared" ref="P18:P26" si="27">(G5/20)^2</f>
+        <v>5.7888359999999981</v>
+      </c>
+      <c r="Q18" s="28">
+        <f t="shared" ref="Q18:Q26" si="28">(H5/20)^2</f>
+        <v>5.8008722500000003</v>
+      </c>
+      <c r="R18" s="28">
+        <f t="shared" ref="R18:R26" si="29">(I5/20)^2</f>
+        <v>5.7816202500000005</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" ref="S18:S26" si="30">AVERAGE(N18:R18)</f>
+        <v>5.7816275500000005</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:T26" si="31">M5/SQRT(5)</f>
+        <v>2.701851217221287E-2</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" ref="U18:U26" si="32">2*T18/20</f>
+        <v>2.7018512172212869E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <f t="shared" si="20"/>
+        <v>5.3686243877975741</v>
+      </c>
+      <c r="C19" s="9">
         <f t="shared" si="21"/>
-        <v>1.3953095500000001</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:K26" si="22">$D$38</f>
+        <v>4.7442596893509173E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="22"/>
+        <v>1.2923095499999999</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="G19" s="6">
         <f t="shared" si="17"/>
-        <v>5.3686243877975741</v>
-      </c>
-      <c r="C19" s="9">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="18"/>
-        <v>4.7442596893509173E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="19"/>
+        <v>129.30000000000001</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="24"/>
         <v>1.2923095499999999</v>
       </c>
-      <c r="E19" s="9">
+      <c r="J19" s="6">
+        <f t="shared" si="24"/>
+        <v>1.2933095500000003</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.2933095500000003</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" ref="N19:O19" si="33">(E6/20)^2</f>
+        <v>5.36617225</v>
+      </c>
+      <c r="O19" s="28">
+        <f t="shared" si="33"/>
+        <v>5.3963289999999997</v>
+      </c>
+      <c r="P19" s="28">
+        <f t="shared" si="27"/>
+        <v>5.3823999999999996</v>
+      </c>
+      <c r="Q19" s="28">
+        <f t="shared" si="28"/>
+        <v>5.3499689999999989</v>
+      </c>
+      <c r="R19" s="28">
+        <f t="shared" si="29"/>
+        <v>5.3569102499999985</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="30"/>
+        <v>5.3703560999999995</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="31"/>
+        <v>3.6523964735499723E-2</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="32"/>
+        <v>3.6523964735499723E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <f t="shared" si="20"/>
+        <v>4.746086097871494</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" si="21"/>
+        <v>4.5019995557529766E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="22"/>
+        <v>1.14230955</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-      <c r="G19" s="6">
-        <f>C6</f>
-        <v>129.19999999999999</v>
-      </c>
-      <c r="H19" s="5">
-        <f>D6</f>
-        <v>129.30000000000001</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="G20" s="6">
+        <f t="shared" si="17"/>
+        <v>114.2</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="18"/>
+        <v>114.3</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="24"/>
+        <v>1.14230955</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="24"/>
+        <v>1.1433095499999999</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.1433095499999999</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" ref="N20:O20" si="34">(E7/20)^2</f>
+        <v>4.7524000000000006</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="34"/>
+        <v>4.7545802499999992</v>
+      </c>
+      <c r="P20" s="28">
+        <f t="shared" si="27"/>
+        <v>4.7502202499999999</v>
+      </c>
+      <c r="Q20" s="28">
+        <f t="shared" si="28"/>
+        <v>4.743684</v>
+      </c>
+      <c r="R20" s="28">
+        <f t="shared" si="29"/>
+        <v>4.7371522499999994</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="30"/>
+        <v>4.74760735</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="31"/>
+        <v>1.4628738838327651E-2</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="32"/>
+        <v>1.4628738838327652E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <f t="shared" si="20"/>
+        <v>4.1333925568695173</v>
+      </c>
+      <c r="C21" s="9">
         <f t="shared" si="21"/>
-        <v>1.2923095499999999</v>
-      </c>
-      <c r="J19" s="6">
+        <v>4.581266200517059E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="22"/>
+        <v>0.98730954999999998</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="23"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="17"/>
+        <v>98.7</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="18"/>
+        <v>98.9</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="24"/>
+        <v>0.98730954999999998</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="24"/>
+        <v>0.98930954999999998</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.98930954999999998</v>
+      </c>
+      <c r="N21" s="28">
+        <f t="shared" ref="N21:O21" si="35">(E8/20)^2</f>
+        <v>4.1310562499999994</v>
+      </c>
+      <c r="O21" s="28">
+        <f t="shared" si="35"/>
+        <v>4.1473322499999989</v>
+      </c>
+      <c r="P21" s="28">
+        <f t="shared" si="27"/>
+        <v>4.124960999999999</v>
+      </c>
+      <c r="Q21" s="28">
+        <f t="shared" si="28"/>
+        <v>4.124960999999999</v>
+      </c>
+      <c r="R21" s="28">
+        <f t="shared" si="29"/>
+        <v>4.1452960000000001</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="30"/>
+        <v>4.1347212999999998</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="31"/>
+        <v>2.3958297101421916E-2</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="32"/>
+        <v>2.3958297101421915E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <f t="shared" si="20"/>
+        <v>3.3672483118803487</v>
+      </c>
+      <c r="C22" s="9">
         <f t="shared" si="21"/>
-        <v>1.2933095500000003</v>
-      </c>
-      <c r="K19" s="6">
+        <v>4.5091019061449494E-2</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="22"/>
+        <v>0.79930954999999992</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="G22" s="6">
         <f t="shared" si="17"/>
-        <v>4.746086097871494</v>
-      </c>
-      <c r="C20" s="9">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="18"/>
-        <v>4.5019995557529766E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="19"/>
-        <v>1.14230955</v>
-      </c>
-      <c r="E20" s="9">
+        <v>80</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="24"/>
+        <v>0.79930954999999992</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="24"/>
+        <v>0.80030954999999993</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.80030954999999993</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" ref="N22:O22" si="36">(E9/20)^2</f>
+        <v>3.3672250000000008</v>
+      </c>
+      <c r="O22" s="28">
+        <f t="shared" si="36"/>
+        <v>3.3580562500000002</v>
+      </c>
+      <c r="P22" s="28">
+        <f t="shared" si="27"/>
+        <v>3.3727322499999994</v>
+      </c>
+      <c r="Q22" s="28">
+        <f t="shared" si="28"/>
+        <v>3.3745690000000006</v>
+      </c>
+      <c r="R22" s="28">
+        <f t="shared" si="29"/>
+        <v>3.3690602500000004</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="30"/>
+        <v>3.3683285500000002</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="31"/>
+        <v>1.5684387141358308E-2</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="32"/>
+        <v>1.5684387141358309E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
         <f t="shared" si="20"/>
+        <v>2.723278591658246</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="21"/>
+        <v>4.532107677449862E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.63830955</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-      <c r="G20" s="6">
-        <f>C7</f>
-        <v>114.2</v>
-      </c>
-      <c r="H20" s="5">
-        <f>D7</f>
-        <v>114.3</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="G23" s="6">
+        <f t="shared" si="17"/>
+        <v>63.8</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="18"/>
+        <v>63.8</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="24"/>
+        <v>0.63830955</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="24"/>
+        <v>0.63830955</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.63830955</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" ref="N23:O23" si="37">(E10/20)^2</f>
+        <v>2.7175522499999993</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="37"/>
+        <v>2.7291039999999995</v>
+      </c>
+      <c r="P23" s="28">
+        <f t="shared" si="27"/>
+        <v>2.7307562499999993</v>
+      </c>
+      <c r="Q23" s="28">
+        <f t="shared" si="28"/>
+        <v>2.7274522499999998</v>
+      </c>
+      <c r="R23" s="28">
+        <f t="shared" si="29"/>
+        <v>2.7159040000000005</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="30"/>
+        <v>2.7241537499999997</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="31"/>
+        <v>1.8708286933869403E-2</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="32"/>
+        <v>1.8708286933869403E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <f t="shared" si="20"/>
+        <v>2.3447417525246013</v>
+      </c>
+      <c r="C24" s="9">
         <f t="shared" si="21"/>
-        <v>1.14230955</v>
-      </c>
-      <c r="J20" s="6">
+        <v>4.6626172907499049E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="22"/>
+        <v>0.54430954999999992</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="23"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="17"/>
+        <v>54.4</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="18"/>
+        <v>54.6</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="24"/>
+        <v>0.54430954999999992</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="24"/>
+        <v>0.54630955000000003</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.54630955000000003</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" ref="N24:O24" si="38">(E11/20)^2</f>
+        <v>2.34243025</v>
+      </c>
+      <c r="O24" s="28">
+        <f t="shared" si="38"/>
+        <v>2.3623689999999997</v>
+      </c>
+      <c r="P24" s="28">
+        <f t="shared" si="27"/>
+        <v>2.3363122499999998</v>
+      </c>
+      <c r="Q24" s="28">
+        <f t="shared" si="28"/>
+        <v>2.3485562500000001</v>
+      </c>
+      <c r="R24" s="28">
+        <f t="shared" si="29"/>
+        <v>2.3378409999999996</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="30"/>
+        <v>2.3455017499999995</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="31"/>
+        <v>3.0822070014844688E-2</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="32"/>
+        <v>3.0822070014844688E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <f t="shared" si="20"/>
+        <v>1.8284005313788356</v>
+      </c>
+      <c r="C25" s="9">
         <f t="shared" si="21"/>
-        <v>1.1433095499999999</v>
-      </c>
-      <c r="K20" s="6">
+        <v>4.4685568140060604E-2</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="22"/>
+        <v>0.41530954999999997</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="G25" s="6">
         <f t="shared" si="17"/>
-        <v>4.1333925568695173</v>
-      </c>
-      <c r="C21" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="18"/>
-        <v>4.581266200517059E-2</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="19"/>
-        <v>0.98730954999999998</v>
-      </c>
-      <c r="E21" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="24"/>
+        <v>0.41530954999999997</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="24"/>
+        <v>0.41530954999999997</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="25"/>
+        <v>2.0002812302273897E-3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.41530954999999997</v>
+      </c>
+      <c r="N25" s="28">
+        <f t="shared" ref="N25:O25" si="39">(E12/20)^2</f>
+        <v>1.8265522500000004</v>
+      </c>
+      <c r="O25" s="28">
+        <f t="shared" si="39"/>
+        <v>1.82925625</v>
+      </c>
+      <c r="P25" s="28">
+        <f t="shared" si="27"/>
+        <v>1.8319622499999999</v>
+      </c>
+      <c r="Q25" s="28">
+        <f t="shared" si="28"/>
+        <v>1.8265522500000004</v>
+      </c>
+      <c r="R25" s="28">
+        <f t="shared" si="29"/>
+        <v>1.8306089999999999</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="30"/>
+        <v>1.8289864000000002</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="31"/>
+        <v>7.9999999999996966E-3</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="32"/>
+        <v>7.9999999999996968E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
         <f t="shared" si="20"/>
+        <v>1.2787517012265215</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="21"/>
+        <v>4.5607017003965557E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="22"/>
+        <v>0.28030955000000002</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="23"/>
         <v>2.0002812302273897E-3</v>
       </c>
-      <c r="G21" s="6">
-        <f>C8</f>
-        <v>98.7</v>
-      </c>
-      <c r="H21" s="5">
-        <f>D8</f>
-        <v>98.9</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="21"/>
-        <v>0.98730954999999998</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="21"/>
-        <v>0.98930954999999998</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="22"/>
+      <c r="G26" s="6">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="24"/>
+        <v>0.28030955000000002</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="24"/>
+        <v>0.28030955000000002</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="25"/>
         <v>2.0002812302273897E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <f t="shared" si="17"/>
-        <v>3.3672483118803487</v>
-      </c>
-      <c r="C22" s="9">
-        <f t="shared" si="18"/>
-        <v>4.5091019061449494E-2</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="19"/>
-        <v>0.79930954999999992</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="20"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-      <c r="G22" s="6">
-        <f>C9</f>
-        <v>79.900000000000006</v>
-      </c>
-      <c r="H22" s="5">
-        <f>D9</f>
-        <v>80</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="21"/>
-        <v>0.79930954999999992</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="21"/>
-        <v>0.80030954999999993</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="22"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <f t="shared" si="17"/>
-        <v>2.723278591658246</v>
-      </c>
-      <c r="C23" s="9">
-        <f t="shared" si="18"/>
-        <v>4.532107677449862E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="19"/>
-        <v>0.63830955</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="20"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-      <c r="G23" s="6">
-        <f>C10</f>
-        <v>63.8</v>
-      </c>
-      <c r="H23" s="5">
-        <f>D10</f>
-        <v>63.8</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="21"/>
-        <v>0.63830955</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="21"/>
-        <v>0.63830955</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="22"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <f t="shared" si="17"/>
-        <v>2.3447417525246013</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" si="18"/>
-        <v>4.6626172907499049E-2</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="19"/>
-        <v>0.54430954999999992</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="20"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-      <c r="G24" s="6">
-        <f>C11</f>
-        <v>54.4</v>
-      </c>
-      <c r="H24" s="5">
-        <f>D11</f>
-        <v>54.6</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="21"/>
-        <v>0.54430954999999992</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="21"/>
-        <v>0.54630955000000003</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="22"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <f t="shared" si="17"/>
-        <v>1.8284005313788356</v>
-      </c>
-      <c r="C25" s="9">
-        <f t="shared" si="18"/>
-        <v>4.4685568140060604E-2</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="19"/>
-        <v>0.41530954999999997</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="20"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-      <c r="G25" s="6">
-        <f>C12</f>
-        <v>41.5</v>
-      </c>
-      <c r="H25" s="5">
-        <f>D12</f>
-        <v>41.5</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="21"/>
-        <v>0.41530954999999997</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="21"/>
-        <v>0.41530954999999997</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="22"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <f t="shared" si="17"/>
-        <v>1.2787517012265215</v>
-      </c>
-      <c r="C26" s="9">
-        <f t="shared" si="18"/>
-        <v>4.5607017003965557E-2</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="19"/>
+      <c r="M26" s="4">
         <v>0.28030955000000002</v>
       </c>
-      <c r="E26" s="9">
-        <f t="shared" si="20"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-      <c r="G26" s="6">
-        <f>C13</f>
-        <v>28</v>
-      </c>
-      <c r="H26" s="5">
-        <f>D13</f>
-        <v>28</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="21"/>
-        <v>0.28030955000000002</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="21"/>
-        <v>0.28030955000000002</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="22"/>
-        <v>2.0002812302273897E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N26" s="28">
+        <f t="shared" ref="N26:O26" si="40">(E13/20)^2</f>
+        <v>1.2859559999999999</v>
+      </c>
+      <c r="O26" s="28">
+        <f t="shared" si="40"/>
+        <v>1.2814240000000003</v>
+      </c>
+      <c r="P26" s="28">
+        <f t="shared" si="27"/>
+        <v>1.2814240000000003</v>
+      </c>
+      <c r="Q26" s="28">
+        <f t="shared" si="28"/>
+        <v>1.2746409999999999</v>
+      </c>
+      <c r="R26" s="28">
+        <f t="shared" si="29"/>
+        <v>1.2723839999999997</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="30"/>
+        <v>1.2791657999999999</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="31"/>
+        <v>2.1908902300206985E-2</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="32"/>
+        <v>2.1908902300206987E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C29" s="6">
         <v>226.2</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C30" s="6">
         <v>38.01</v>
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6">
         <v>38.03</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6">
         <f>AVERAGE(C30:C31)</f>
@@ -2157,7 +2570,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="6">
         <f>C32/(2*1000)</f>
@@ -2170,7 +2583,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6">
         <v>11.87</v>
@@ -2186,7 +2599,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6">
         <f>AVERAGE(C34:C35)/1000</f>
@@ -2199,7 +2612,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6">
@@ -2209,7 +2622,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
@@ -2223,13 +2636,14 @@
       <c r="D39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="M15:T15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
